--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ntf3</t>
   </si>
   <si>
     <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.88609529217408</v>
+        <v>8.859944</v>
       </c>
       <c r="H2">
-        <v>7.88609529217408</v>
+        <v>26.579832</v>
       </c>
       <c r="I2">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="J2">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.437471425230274</v>
+        <v>0.5314143333333333</v>
       </c>
       <c r="N2">
-        <v>0.437471425230274</v>
+        <v>1.594243</v>
       </c>
       <c r="O2">
-        <v>0.01663163947418179</v>
+        <v>0.01762280440365445</v>
       </c>
       <c r="P2">
-        <v>0.01663163947418179</v>
+        <v>0.01762280440365445</v>
       </c>
       <c r="Q2">
-        <v>3.449941346969148</v>
+        <v>4.708301234130666</v>
       </c>
       <c r="R2">
-        <v>3.449941346969148</v>
+        <v>42.374711107176</v>
       </c>
       <c r="S2">
-        <v>0.009632259579023209</v>
+        <v>0.008672408199880898</v>
       </c>
       <c r="T2">
-        <v>0.009632259579023209</v>
+        <v>0.008672408199880896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.88609529217408</v>
+        <v>8.859944</v>
       </c>
       <c r="H3">
-        <v>7.88609529217408</v>
+        <v>26.579832</v>
       </c>
       <c r="I3">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="J3">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.2155190285609</v>
+        <v>24.72809866666667</v>
       </c>
       <c r="N3">
-        <v>24.2155190285609</v>
+        <v>74.184296</v>
       </c>
       <c r="O3">
-        <v>0.9206173453528296</v>
+        <v>0.8200351754599551</v>
       </c>
       <c r="P3">
-        <v>0.9206173453528296</v>
+        <v>0.820035175459955</v>
       </c>
       <c r="Q3">
-        <v>190.965890608686</v>
+        <v>219.0895694131414</v>
       </c>
       <c r="R3">
-        <v>190.965890608686</v>
+        <v>1971.806124718272</v>
       </c>
       <c r="S3">
-        <v>0.5331780584322678</v>
+        <v>0.4035498333270346</v>
       </c>
       <c r="T3">
-        <v>0.5331780584322678</v>
+        <v>0.4035498333270345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.88609529217408</v>
+        <v>8.859944</v>
       </c>
       <c r="H4">
-        <v>7.88609529217408</v>
+        <v>26.579832</v>
       </c>
       <c r="I4">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="J4">
-        <v>0.5791527404123867</v>
+        <v>0.4921128329655918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.65057546401176</v>
+        <v>4.895411333333333</v>
       </c>
       <c r="N4">
-        <v>1.65057546401176</v>
+        <v>14.686234</v>
       </c>
       <c r="O4">
-        <v>0.06275101517298869</v>
+        <v>0.1623420201363905</v>
       </c>
       <c r="P4">
-        <v>0.06275101517298869</v>
+        <v>0.1623420201363905</v>
       </c>
       <c r="Q4">
-        <v>13.01659539612119</v>
+        <v>43.37307027029866</v>
       </c>
       <c r="R4">
-        <v>13.01659539612119</v>
+        <v>390.357632432688</v>
       </c>
       <c r="S4">
-        <v>0.03634242240109566</v>
+        <v>0.07989059143867629</v>
       </c>
       <c r="T4">
-        <v>0.03634242240109566</v>
+        <v>0.07989059143867629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.73051176481536</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H5">
-        <v>5.73051176481536</v>
+        <v>17.603933</v>
       </c>
       <c r="I5">
-        <v>0.4208472595876132</v>
+        <v>0.3259283708025871</v>
       </c>
       <c r="J5">
-        <v>0.4208472595876132</v>
+        <v>0.3259283708025871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.437471425230274</v>
+        <v>0.5314143333333333</v>
       </c>
       <c r="N5">
-        <v>0.437471425230274</v>
+        <v>1.594243</v>
       </c>
       <c r="O5">
-        <v>0.01663163947418179</v>
+        <v>0.01762280440365445</v>
       </c>
       <c r="P5">
-        <v>0.01663163947418179</v>
+        <v>0.01762280440365445</v>
       </c>
       <c r="Q5">
-        <v>2.506935149052628</v>
+        <v>3.118327439746556</v>
       </c>
       <c r="R5">
-        <v>2.506935149052628</v>
+        <v>28.064946957719</v>
       </c>
       <c r="S5">
-        <v>0.006999379895158577</v>
+        <v>0.005743771928255752</v>
       </c>
       <c r="T5">
-        <v>0.006999379895158577</v>
+        <v>0.005743771928255751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.73051176481536</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H6">
-        <v>5.73051176481536</v>
+        <v>17.603933</v>
       </c>
       <c r="I6">
-        <v>0.4208472595876132</v>
+        <v>0.3259283708025871</v>
       </c>
       <c r="J6">
-        <v>0.4208472595876132</v>
+        <v>0.3259283708025871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.2155190285609</v>
+        <v>24.72809866666667</v>
       </c>
       <c r="N6">
-        <v>24.2155190285609</v>
+        <v>74.184296</v>
       </c>
       <c r="O6">
-        <v>0.9206173453528296</v>
+        <v>0.8200351754599551</v>
       </c>
       <c r="P6">
-        <v>0.9206173453528296</v>
+        <v>0.820035175459955</v>
       </c>
       <c r="Q6">
-        <v>138.7673166842785</v>
+        <v>145.1039307151298</v>
       </c>
       <c r="R6">
-        <v>138.7673166842785</v>
+        <v>1305.935376436168</v>
       </c>
       <c r="S6">
-        <v>0.3874392869205616</v>
+        <v>0.2672727287384768</v>
       </c>
       <c r="T6">
-        <v>0.3874392869205616</v>
+        <v>0.2672727287384767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.867977666666667</v>
+      </c>
+      <c r="H7">
+        <v>17.603933</v>
+      </c>
+      <c r="I7">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="J7">
+        <v>0.3259283708025871</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.895411333333333</v>
+      </c>
+      <c r="N7">
+        <v>14.686234</v>
+      </c>
+      <c r="O7">
+        <v>0.1623420201363905</v>
+      </c>
+      <c r="P7">
+        <v>0.1623420201363905</v>
+      </c>
+      <c r="Q7">
+        <v>28.72616437314689</v>
+      </c>
+      <c r="R7">
+        <v>258.535479358322</v>
+      </c>
+      <c r="S7">
+        <v>0.05291187013585454</v>
+      </c>
+      <c r="T7">
+        <v>0.05291187013585454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.73051176481536</v>
-      </c>
-      <c r="H7">
-        <v>5.73051176481536</v>
-      </c>
-      <c r="I7">
-        <v>0.4208472595876132</v>
-      </c>
-      <c r="J7">
-        <v>0.4208472595876132</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.65057546401176</v>
-      </c>
-      <c r="N7">
-        <v>1.65057546401176</v>
-      </c>
-      <c r="O7">
-        <v>0.06275101517298869</v>
-      </c>
-      <c r="P7">
-        <v>0.06275101517298869</v>
-      </c>
-      <c r="Q7">
-        <v>9.458642115234964</v>
-      </c>
-      <c r="R7">
-        <v>9.458642115234964</v>
-      </c>
-      <c r="S7">
-        <v>0.02640859277189302</v>
-      </c>
-      <c r="T7">
-        <v>0.02640859277189302</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.827897</v>
+      </c>
+      <c r="I8">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J8">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5314143333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.594243</v>
+      </c>
+      <c r="O8">
+        <v>0.01762280440365445</v>
+      </c>
+      <c r="P8">
+        <v>0.01762280440365445</v>
+      </c>
+      <c r="Q8">
+        <v>1.740895110774555</v>
+      </c>
+      <c r="R8">
+        <v>15.668055996971</v>
+      </c>
+      <c r="S8">
+        <v>0.003206624275517801</v>
+      </c>
+      <c r="T8">
+        <v>0.0032066242755178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.827897</v>
+      </c>
+      <c r="I9">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J9">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.72809866666667</v>
+      </c>
+      <c r="N9">
+        <v>74.184296</v>
+      </c>
+      <c r="O9">
+        <v>0.8200351754599551</v>
+      </c>
+      <c r="P9">
+        <v>0.820035175459955</v>
+      </c>
+      <c r="Q9">
+        <v>81.00840223394577</v>
+      </c>
+      <c r="R9">
+        <v>729.075620105512</v>
+      </c>
+      <c r="S9">
+        <v>0.1492126133944437</v>
+      </c>
+      <c r="T9">
+        <v>0.1492126133944437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>3.275965666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.827897</v>
+      </c>
+      <c r="I10">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="J10">
+        <v>0.1819587962318212</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.895411333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.686234</v>
+      </c>
+      <c r="O10">
+        <v>0.1623420201363905</v>
+      </c>
+      <c r="P10">
+        <v>0.1623420201363905</v>
+      </c>
+      <c r="Q10">
+        <v>16.03719945221088</v>
+      </c>
+      <c r="R10">
+        <v>144.334795069898</v>
+      </c>
+      <c r="S10">
+        <v>0.02953955856185969</v>
+      </c>
+      <c r="T10">
+        <v>0.02953955856185969</v>
       </c>
     </row>
   </sheetData>
